--- a/Complete-spreadsheets/TASK/F3-list-TA.xlsx
+++ b/Complete-spreadsheets/TASK/F3-list-TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0FE58C-1D7C-481B-BA0B-24169069026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EA81E2-EB21-481D-9A10-53FCF08FFA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13:P16"/>
+      <selection activeCell="A24" sqref="A24:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,23 +502,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>235.40594473500201</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45.426447438716593</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6.6095839837137511</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.1180169387886338</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.2723988407111522</v>
+      <c r="B2" s="4">
+        <v>141.55316073081909</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21.681387596790621</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.8033375984384659</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.2654466581454451</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.4876958265666591</v>
       </c>
       <c r="G2">
-        <v>292.83239193693208</v>
+        <v>173.7910284107603</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -541,22 +541,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>141.55316073081909</v>
+        <v>1510.8420952656029</v>
       </c>
       <c r="C3" s="4">
-        <v>21.681387596790621</v>
+        <v>98.489848347898032</v>
       </c>
       <c r="D3" s="4">
-        <v>4.8033375984384659</v>
+        <v>11.652927915973541</v>
       </c>
       <c r="E3" s="4">
-        <v>3.2654466581454451</v>
+        <v>4.0169085373038964</v>
       </c>
       <c r="F3" s="4">
-        <v>2.4876958265666591</v>
+        <v>2.525476790015424</v>
       </c>
       <c r="G3">
-        <v>173.7910284107603</v>
+        <v>1627.5272568567941</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -579,22 +579,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>1510.8420952656029</v>
+        <v>9.1423725519517021</v>
       </c>
       <c r="C4" s="4">
-        <v>98.489848347898032</v>
+        <v>49.262621402391559</v>
       </c>
       <c r="D4" s="4">
-        <v>11.652927915973541</v>
+        <v>6.4955273300751522</v>
       </c>
       <c r="E4" s="4">
-        <v>4.0169085373038964</v>
+        <v>3.3315029983990621</v>
       </c>
       <c r="F4" s="4">
-        <v>2.525476790015424</v>
+        <v>4.1246923973224439</v>
       </c>
       <c r="G4">
-        <v>1627.5272568567941</v>
+        <v>72.356716680139925</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -616,23 +616,23 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>65.406557921099022</v>
-      </c>
-      <c r="C5" s="3">
-        <v>20.69542954441274</v>
-      </c>
-      <c r="D5" s="3">
-        <v>8.7164505973254442</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.5593449912106978</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.574372896372636</v>
+      <c r="B5" s="4">
+        <v>9.1423725519517021</v>
+      </c>
+      <c r="C5" s="4">
+        <v>49.262621402391559</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6.4955273300751522</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.3315029983990621</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.1246923973224439</v>
       </c>
       <c r="G5">
-        <v>100.9521559504205</v>
+        <v>72.356716680139925</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -654,23 +654,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>232.28594054380781</v>
-      </c>
-      <c r="C6" s="3">
-        <v>55.915760942907447</v>
-      </c>
-      <c r="D6" s="3">
-        <v>7.2651510437669531</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.7480180874917242</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.7263230837477379</v>
+      <c r="B6" s="4">
+        <v>9.1423725519517021</v>
+      </c>
+      <c r="C6" s="4">
+        <v>49.262621402391559</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6.4955273300751522</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.3315029983990621</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.1246923973224439</v>
       </c>
       <c r="G6">
-        <v>302.9411937017216</v>
+        <v>72.356716680139925</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
@@ -692,23 +692,23 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>73.150551680826027</v>
-      </c>
-      <c r="C7" s="3">
-        <v>17.587755006762769</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3.096755728383501</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3.1116774767673578</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.793398463839893</v>
+      <c r="B7" s="4">
+        <v>9.1423725519517021</v>
+      </c>
+      <c r="C7" s="4">
+        <v>49.262621402391559</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6.4955273300751522</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.3315029983990621</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.1246923973224439</v>
       </c>
       <c r="G7">
-        <v>100.74013835657961</v>
+        <v>72.356716680139925</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -717,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>28</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -921,22 +921,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>9.1423725519517021</v>
+        <v>13.83672852397433</v>
       </c>
       <c r="C13" s="4">
-        <v>49.262621402391559</v>
+        <v>36.208813020424039</v>
       </c>
       <c r="D13" s="4">
-        <v>6.4955273300751522</v>
+        <v>5.1788973227628787</v>
       </c>
       <c r="E13" s="4">
-        <v>3.3315029983990621</v>
+        <v>3.9552945799325072</v>
       </c>
       <c r="F13" s="4">
-        <v>4.1246923973224439</v>
+        <v>5.009107236130272</v>
       </c>
       <c r="G13">
-        <v>72.356716680139925</v>
+        <v>64.188840683224029</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>9.1423725519517021</v>
+        <v>9.8700791018570104</v>
       </c>
       <c r="C14" s="4">
-        <v>49.262621402391559</v>
+        <v>44.278436534846563</v>
       </c>
       <c r="D14" s="4">
-        <v>6.4955273300751522</v>
+        <v>3.5191763383174051</v>
       </c>
       <c r="E14" s="4">
-        <v>3.3315029983990621</v>
+        <v>4.4947526437495906</v>
       </c>
       <c r="F14" s="4">
-        <v>4.1246923973224439</v>
+        <v>5.732381999212647</v>
       </c>
       <c r="G14">
-        <v>72.356716680139925</v>
+        <v>67.894826617983199</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -1003,22 +1003,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>9.1423725519517021</v>
+        <v>569.57352707053337</v>
       </c>
       <c r="C15" s="4">
-        <v>49.262621402391559</v>
+        <v>32.410604208077253</v>
       </c>
       <c r="D15" s="4">
-        <v>6.4955273300751522</v>
+        <v>9.543014412146432</v>
       </c>
       <c r="E15" s="4">
-        <v>3.3315029983990621</v>
+        <v>6.5828387930847407</v>
       </c>
       <c r="F15" s="4">
-        <v>4.1246923973224439</v>
+        <v>5.8265637491416236</v>
       </c>
       <c r="G15">
-        <v>72.356716680139925</v>
+        <v>623.93654823298345</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1044,22 +1044,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>9.1423725519517021</v>
+        <v>16.793566285724769</v>
       </c>
       <c r="C16" s="4">
-        <v>49.262621402391559</v>
+        <v>24.156830356014719</v>
       </c>
       <c r="D16" s="4">
-        <v>6.4955273300751522</v>
+        <v>10.21868058512071</v>
       </c>
       <c r="E16" s="4">
-        <v>3.3315029983990621</v>
+        <v>4.8859648354187586</v>
       </c>
       <c r="F16" s="4">
-        <v>4.1246923973224439</v>
+        <v>5.9741901484016582</v>
       </c>
       <c r="G16">
-        <v>72.356716680139925</v>
+        <v>62.029232210680597</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1084,23 +1084,23 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3">
-        <v>84.859712229630446</v>
-      </c>
-      <c r="C17" s="3">
-        <v>10.128625481186081</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4.4418434731842193</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4.4324786211218292</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4.7947516293723664</v>
+      <c r="B17" s="4">
+        <v>10.195056699910131</v>
+      </c>
+      <c r="C17" s="4">
+        <v>18.238512795999078</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.150694684280464</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.8029734073623791</v>
+      </c>
+      <c r="F17" s="4">
+        <v>8.170898669908679</v>
       </c>
       <c r="G17">
-        <v>108.6574114344949</v>
+        <v>44.558136257460731</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>13</v>
@@ -1123,22 +1123,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>13.83672852397433</v>
+        <v>104.62819268465159</v>
       </c>
       <c r="C18" s="4">
-        <v>36.208813020424039</v>
+        <v>57.072062178498392</v>
       </c>
       <c r="D18" s="4">
-        <v>5.1788973227628787</v>
+        <v>6.2860584729123774</v>
       </c>
       <c r="E18" s="4">
-        <v>3.9552945799325072</v>
+        <v>8.2052543985970736</v>
       </c>
       <c r="F18" s="4">
-        <v>5.009107236130272</v>
+        <v>8.2716480140357653</v>
       </c>
       <c r="G18">
-        <v>64.188840683224029</v>
+        <v>184.46321574869529</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1160,23 +1160,23 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
-        <v>88.221041581319099</v>
-      </c>
-      <c r="C19" s="3">
-        <v>28.031674035964961</v>
-      </c>
-      <c r="D19" s="3">
-        <v>13.69598715339886</v>
-      </c>
-      <c r="E19" s="3">
-        <v>13.50576257767376</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5.3249720415823756</v>
+      <c r="B19" s="4">
+        <v>103.1051866704552</v>
+      </c>
+      <c r="C19" s="4">
+        <v>132.0829729730093</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12.23183595219926</v>
+      </c>
+      <c r="E19" s="4">
+        <v>11.21303034465768</v>
+      </c>
+      <c r="F19" s="4">
+        <v>8.5322402863728257</v>
       </c>
       <c r="G19">
-        <v>148.77943738993901</v>
+        <v>267.16526622669431</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1185,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>13</v>
@@ -1198,23 +1198,23 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
-        <v>56.502424577562351</v>
-      </c>
-      <c r="C20" s="3">
-        <v>16.774027546371371</v>
-      </c>
-      <c r="D20" s="3">
-        <v>7.6832568989689527</v>
-      </c>
-      <c r="E20" s="3">
-        <v>8.3648183534586522</v>
-      </c>
-      <c r="F20" s="3">
-        <v>5.6003308668755283</v>
+      <c r="B20" s="4">
+        <v>72.934070181495244</v>
+      </c>
+      <c r="C20" s="4">
+        <v>26.297325639830301</v>
+      </c>
+      <c r="D20" s="4">
+        <v>24.292293133988242</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10.30820359933395</v>
+      </c>
+      <c r="F20" s="4">
+        <v>12.82651853455496</v>
       </c>
       <c r="G20">
-        <v>94.924858243236841</v>
+        <v>146.6584110892027</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>13</v>
@@ -1237,22 +1237,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>9.8700791018570104</v>
+        <v>156.73928989626941</v>
       </c>
       <c r="C21" s="4">
-        <v>44.278436534846563</v>
+        <v>46.37723162553425</v>
       </c>
       <c r="D21" s="4">
-        <v>3.5191763383174051</v>
+        <v>24.320384377781259</v>
       </c>
       <c r="E21" s="4">
-        <v>4.4947526437495906</v>
+        <v>25.13703475394469</v>
       </c>
       <c r="F21" s="4">
-        <v>5.732381999212647</v>
+        <v>34.388880435657242</v>
       </c>
       <c r="G21">
-        <v>67.894826617983199</v>
+        <v>286.96282108918672</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1275,22 +1275,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="4">
-        <v>569.57352707053337</v>
+        <v>24.09598084295509</v>
       </c>
       <c r="C22" s="4">
-        <v>32.410604208077253</v>
+        <v>46.02564548352823</v>
       </c>
       <c r="D22" s="4">
-        <v>9.543014412146432</v>
+        <v>26.621712504323561</v>
       </c>
       <c r="E22" s="4">
-        <v>6.5828387930847407</v>
+        <v>45.398046518585318</v>
       </c>
       <c r="F22" s="4">
-        <v>5.8265637491416236</v>
+        <v>80.309917654816019</v>
       </c>
       <c r="G22">
-        <v>623.93654823298345</v>
+        <v>222.4513030042082</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1313,22 +1313,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>16.793566285724769</v>
+        <v>4656.8370087382773</v>
       </c>
       <c r="C23" s="4">
-        <v>24.156830356014719</v>
+        <v>1594.232871633104</v>
       </c>
       <c r="D23" s="4">
-        <v>10.21868058512071</v>
+        <v>490.75170901551252</v>
       </c>
       <c r="E23" s="4">
-        <v>4.8859648354187586</v>
+        <v>428.82891076199701</v>
       </c>
       <c r="F23" s="4">
-        <v>5.9741901484016582</v>
+        <v>281.56260069794808</v>
       </c>
       <c r="G23">
-        <v>62.029232210680597</v>
+        <v>7452.2131008468386</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1351,22 +1351,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3">
-        <v>267.906818110122</v>
+        <v>235.40594473500201</v>
       </c>
       <c r="C24" s="3">
-        <v>96.955117025951552</v>
+        <v>45.426447438716593</v>
       </c>
       <c r="D24" s="3">
-        <v>20.12915388892057</v>
+        <v>6.6095839837137511</v>
       </c>
       <c r="E24" s="3">
-        <v>8.4216692146004775</v>
+        <v>3.1180169387886338</v>
       </c>
       <c r="F24" s="3">
-        <v>6.3734038112820004</v>
+        <v>2.2723988407111522</v>
       </c>
       <c r="G24">
-        <v>399.78616205087673</v>
+        <v>292.83239193693208</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -1389,22 +1389,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>54.642516534940128</v>
+        <v>65.406557921099022</v>
       </c>
       <c r="C25" s="3">
-        <v>17.79898931614807</v>
+        <v>20.69542954441274</v>
       </c>
       <c r="D25" s="3">
-        <v>7.1725658532150671</v>
+        <v>8.7164505973254442</v>
       </c>
       <c r="E25" s="3">
-        <v>7.1847953829573612</v>
+        <v>3.5593449912106978</v>
       </c>
       <c r="F25" s="3">
-        <v>6.7056836350308142</v>
+        <v>2.574372896372636</v>
       </c>
       <c r="G25">
-        <v>93.504550722291413</v>
+        <v>100.9521559504205</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1427,22 +1427,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>60.658953246421653</v>
+        <v>232.28594054380781</v>
       </c>
       <c r="C26" s="3">
-        <v>17.03114556956632</v>
+        <v>55.915760942907447</v>
       </c>
       <c r="D26" s="3">
-        <v>17.049517287778979</v>
+        <v>7.2651510437669531</v>
       </c>
       <c r="E26" s="3">
-        <v>9.6295405790695412</v>
+        <v>3.7480180874917242</v>
       </c>
       <c r="F26" s="3">
-        <v>7.1901307616153058</v>
+        <v>3.7263230837477379</v>
       </c>
       <c r="G26">
-        <v>111.5592874444518</v>
+        <v>302.9411937017216</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -1465,22 +1465,22 @@
         <v>9</v>
       </c>
       <c r="B27" s="3">
-        <v>214.95359623686011</v>
+        <v>73.150551680826027</v>
       </c>
       <c r="C27" s="3">
-        <v>50.315682788998053</v>
+        <v>17.587755006762769</v>
       </c>
       <c r="D27" s="3">
-        <v>13.322878634406029</v>
+        <v>3.096755728383501</v>
       </c>
       <c r="E27" s="3">
-        <v>7.9635131153227423</v>
+        <v>3.1116774767673578</v>
       </c>
       <c r="F27" s="3">
-        <v>7.5231953436968206</v>
+        <v>3.793398463839893</v>
       </c>
       <c r="G27">
-        <v>294.0788661192837</v>
+        <v>100.74013835657961</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -1502,23 +1502,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>10.195056699910131</v>
-      </c>
-      <c r="C28" s="4">
-        <v>18.238512795999078</v>
-      </c>
-      <c r="D28" s="4">
-        <v>3.150694684280464</v>
-      </c>
-      <c r="E28" s="4">
-        <v>4.8029734073623791</v>
-      </c>
-      <c r="F28" s="4">
-        <v>8.170898669908679</v>
+      <c r="B28" s="3">
+        <v>84.859712229630446</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10.128625481186081</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4.4418434731842193</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4.4324786211218292</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4.7947516293723664</v>
       </c>
       <c r="G28">
-        <v>44.558136257460731</v>
+        <v>108.6574114344949</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>7</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>13</v>
@@ -1541,22 +1541,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="3">
-        <v>20.66599112289768</v>
+        <v>88.221041581319099</v>
       </c>
       <c r="C29" s="3">
-        <v>10.12983704204151</v>
+        <v>28.031674035964961</v>
       </c>
       <c r="D29" s="3">
-        <v>6.1897501490881268</v>
+        <v>13.69598715339886</v>
       </c>
       <c r="E29" s="3">
-        <v>7.2533225994151493</v>
+        <v>13.50576257767376</v>
       </c>
       <c r="F29" s="3">
-        <v>8.2131494742253359</v>
+        <v>5.3249720415823756</v>
       </c>
       <c r="G29">
-        <v>52.452050387667789</v>
+        <v>148.77943738993901</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -1578,23 +1578,23 @@
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
-        <v>104.62819268465159</v>
-      </c>
-      <c r="C30" s="4">
-        <v>57.072062178498392</v>
-      </c>
-      <c r="D30" s="4">
-        <v>6.2860584729123774</v>
-      </c>
-      <c r="E30" s="4">
-        <v>8.2052543985970736</v>
-      </c>
-      <c r="F30" s="4">
-        <v>8.2716480140357653</v>
+      <c r="B30" s="3">
+        <v>56.502424577562351</v>
+      </c>
+      <c r="C30" s="3">
+        <v>16.774027546371371</v>
+      </c>
+      <c r="D30" s="3">
+        <v>7.6832568989689527</v>
+      </c>
+      <c r="E30" s="3">
+        <v>8.3648183534586522</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5.6003308668755283</v>
       </c>
       <c r="G30">
-        <v>184.46321574869529</v>
+        <v>94.924858243236841</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>11</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>13</v>
@@ -1616,23 +1616,23 @@
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>103.1051866704552</v>
-      </c>
-      <c r="C31" s="4">
-        <v>132.0829729730093</v>
-      </c>
-      <c r="D31" s="4">
-        <v>12.23183595219926</v>
-      </c>
-      <c r="E31" s="4">
-        <v>11.21303034465768</v>
-      </c>
-      <c r="F31" s="4">
-        <v>8.5322402863728257</v>
+      <c r="B31" s="3">
+        <v>267.906818110122</v>
+      </c>
+      <c r="C31" s="3">
+        <v>96.955117025951552</v>
+      </c>
+      <c r="D31" s="3">
+        <v>20.12915388892057</v>
+      </c>
+      <c r="E31" s="3">
+        <v>8.4216692146004775</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6.3734038112820004</v>
       </c>
       <c r="G31">
-        <v>267.16526622669431</v>
+        <v>399.78616205087673</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>10</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>13</v>
@@ -1655,22 +1655,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>9867.3337015688558</v>
+        <v>54.642516534940128</v>
       </c>
       <c r="C32" s="3">
-        <v>1004.993845248016</v>
+        <v>17.79898931614807</v>
       </c>
       <c r="D32" s="3">
-        <v>71.132392935579063</v>
+        <v>7.1725658532150671</v>
       </c>
       <c r="E32" s="3">
-        <v>12.601369677818189</v>
+        <v>7.1847953829573612</v>
       </c>
       <c r="F32" s="3">
-        <v>9.7998429225561701</v>
+        <v>6.7056836350308142</v>
       </c>
       <c r="G32">
-        <v>10965.861152352831</v>
+        <v>93.504550722291413</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1693,22 +1693,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="3">
-        <v>86.614255721165165</v>
+        <v>60.658953246421653</v>
       </c>
       <c r="C33" s="3">
-        <v>29.467811224305571</v>
+        <v>17.03114556956632</v>
       </c>
       <c r="D33" s="3">
-        <v>34.002977908529843</v>
+        <v>17.049517287778979</v>
       </c>
       <c r="E33" s="3">
-        <v>16.911262321606291</v>
+        <v>9.6295405790695412</v>
       </c>
       <c r="F33" s="3">
-        <v>10.00505224795212</v>
+        <v>7.1901307616153058</v>
       </c>
       <c r="G33">
-        <v>177.00135942355899</v>
+        <v>111.5592874444518</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1731,22 +1731,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="3">
-        <v>218.1523138297606</v>
+        <v>214.95359623686011</v>
       </c>
       <c r="C34" s="3">
-        <v>48.870510506223553</v>
+        <v>50.315682788998053</v>
       </c>
       <c r="D34" s="3">
-        <v>9.4647477364009731</v>
+        <v>13.322878634406029</v>
       </c>
       <c r="E34" s="3">
-        <v>10.215222986293069</v>
+        <v>7.9635131153227423</v>
       </c>
       <c r="F34" s="3">
-        <v>10.288511190749739</v>
+        <v>7.5231953436968206</v>
       </c>
       <c r="G34">
-        <v>296.99130624942802</v>
+        <v>294.0788661192837</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1769,22 +1769,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>372.26785906680863</v>
+        <v>20.66599112289768</v>
       </c>
       <c r="C35" s="3">
-        <v>68.141765606696936</v>
+        <v>10.12983704204151</v>
       </c>
       <c r="D35" s="3">
-        <v>9.3763607652907712</v>
+        <v>6.1897501490881268</v>
       </c>
       <c r="E35" s="3">
-        <v>11.84163837811362</v>
+        <v>7.2533225994151493</v>
       </c>
       <c r="F35" s="3">
-        <v>11.904719060926521</v>
+        <v>8.2131494742253359</v>
       </c>
       <c r="G35">
-        <v>473.53234287783641</v>
+        <v>52.452050387667789</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1807,22 +1807,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>1862.0026808313489</v>
+        <v>9867.3337015688558</v>
       </c>
       <c r="C36" s="3">
-        <v>302.50344270560572</v>
+        <v>1004.993845248016</v>
       </c>
       <c r="D36" s="3">
-        <v>69.723477748318572</v>
+        <v>71.132392935579063</v>
       </c>
       <c r="E36" s="3">
-        <v>30.0070083641811</v>
+        <v>12.601369677818189</v>
       </c>
       <c r="F36" s="3">
-        <v>12.316163630020821</v>
+        <v>9.7998429225561701</v>
       </c>
       <c r="G36">
-        <v>2276.5527732794749</v>
+        <v>10965.861152352831</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1844,23 +1844,23 @@
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="4">
-        <v>72.934070181495244</v>
-      </c>
-      <c r="C37" s="4">
-        <v>26.297325639830301</v>
-      </c>
-      <c r="D37" s="4">
-        <v>24.292293133988242</v>
-      </c>
-      <c r="E37" s="4">
-        <v>10.30820359933395</v>
-      </c>
-      <c r="F37" s="4">
-        <v>12.82651853455496</v>
+      <c r="B37" s="3">
+        <v>86.614255721165165</v>
+      </c>
+      <c r="C37" s="3">
+        <v>29.467811224305571</v>
+      </c>
+      <c r="D37" s="3">
+        <v>34.002977908529843</v>
+      </c>
+      <c r="E37" s="3">
+        <v>16.911262321606291</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10.00505224795212</v>
       </c>
       <c r="G37">
-        <v>146.6584110892027</v>
+        <v>177.00135942355899</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1869,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>18</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
       </c>
       <c r="L37" t="s">
         <v>13</v>
@@ -1883,22 +1883,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>390.83127359126883</v>
+        <v>218.1523138297606</v>
       </c>
       <c r="C38" s="3">
-        <v>121.5430910361091</v>
+        <v>48.870510506223553</v>
       </c>
       <c r="D38" s="3">
-        <v>19.431799142179969</v>
+        <v>9.4647477364009731</v>
       </c>
       <c r="E38" s="3">
-        <v>12.45005641983917</v>
+        <v>10.215222986293069</v>
       </c>
       <c r="F38" s="3">
-        <v>15.20943219904097</v>
+        <v>10.288511190749739</v>
       </c>
       <c r="G38">
-        <v>559.465652388438</v>
+        <v>296.99130624942802</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1921,22 +1921,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>802.65750224105022</v>
+        <v>372.26785906680863</v>
       </c>
       <c r="C39" s="3">
-        <v>155.24556505694031</v>
+        <v>68.141765606696936</v>
       </c>
       <c r="D39" s="3">
-        <v>51.506967171100293</v>
+        <v>9.3763607652907712</v>
       </c>
       <c r="E39" s="3">
-        <v>22.323915600573951</v>
+        <v>11.84163837811362</v>
       </c>
       <c r="F39" s="3">
-        <v>20.797088563166358</v>
+        <v>11.904719060926521</v>
       </c>
       <c r="G39">
-        <v>1052.531038632831</v>
+        <v>473.53234287783641</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1959,22 +1959,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>214.97658580428629</v>
+        <v>1862.0026808313489</v>
       </c>
       <c r="C40" s="3">
-        <v>43.112079413289997</v>
+        <v>302.50344270560572</v>
       </c>
       <c r="D40" s="3">
-        <v>14.641539593540729</v>
+        <v>69.723477748318572</v>
       </c>
       <c r="E40" s="3">
-        <v>14.840640897707351</v>
+        <v>30.0070083641811</v>
       </c>
       <c r="F40" s="3">
-        <v>21.78801315177774</v>
+        <v>12.316163630020821</v>
       </c>
       <c r="G40">
-        <v>309.35885886060208</v>
+        <v>2276.5527732794749</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1997,22 +1997,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>1369.992329953968</v>
+        <v>390.83127359126883</v>
       </c>
       <c r="C41" s="3">
-        <v>249.3948659821078</v>
+        <v>121.5430910361091</v>
       </c>
       <c r="D41" s="3">
-        <v>69.725353110384276</v>
+        <v>19.431799142179969</v>
       </c>
       <c r="E41" s="3">
-        <v>39.52201185941594</v>
+        <v>12.45005641983917</v>
       </c>
       <c r="F41" s="3">
-        <v>21.911865664827321</v>
+        <v>15.20943219904097</v>
       </c>
       <c r="G41">
-        <v>1750.546426570703</v>
+        <v>559.465652388438</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2035,22 +2035,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>40.895758220048663</v>
+        <v>802.65750224105022</v>
       </c>
       <c r="C42" s="3">
-        <v>15.45769599960607</v>
+        <v>155.24556505694031</v>
       </c>
       <c r="D42" s="3">
-        <v>7.0962892989591566</v>
+        <v>51.506967171100293</v>
       </c>
       <c r="E42" s="3">
-        <v>17.92441196243384</v>
+        <v>22.323915600573951</v>
       </c>
       <c r="F42" s="3">
-        <v>32.746420814570712</v>
+        <v>20.797088563166358</v>
       </c>
       <c r="G42">
-        <v>114.12057629561841</v>
+        <v>1052.531038632831</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2072,23 +2072,23 @@
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="4">
-        <v>156.73928989626941</v>
-      </c>
-      <c r="C43" s="4">
-        <v>46.37723162553425</v>
-      </c>
-      <c r="D43" s="4">
-        <v>24.320384377781259</v>
-      </c>
-      <c r="E43" s="4">
-        <v>25.13703475394469</v>
-      </c>
-      <c r="F43" s="4">
-        <v>34.388880435657242</v>
+      <c r="B43" s="3">
+        <v>214.97658580428629</v>
+      </c>
+      <c r="C43" s="3">
+        <v>43.112079413289997</v>
+      </c>
+      <c r="D43" s="3">
+        <v>14.641539593540729</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14.840640897707351</v>
+      </c>
+      <c r="F43" s="3">
+        <v>21.78801315177774</v>
       </c>
       <c r="G43">
-        <v>286.96282108918672</v>
+        <v>309.35885886060208</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2097,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>19</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>13</v>
@@ -2111,22 +2111,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>41.466961436971737</v>
+        <v>1369.992329953968</v>
       </c>
       <c r="C44" s="3">
-        <v>39.143452149345229</v>
+        <v>249.3948659821078</v>
       </c>
       <c r="D44" s="3">
-        <v>16.883304475451389</v>
+        <v>69.725353110384276</v>
       </c>
       <c r="E44" s="3">
-        <v>22.706780397732011</v>
+        <v>39.52201185941594</v>
       </c>
       <c r="F44" s="3">
-        <v>46.167724639851983</v>
+        <v>21.911865664827321</v>
       </c>
       <c r="G44">
-        <v>166.36822309935229</v>
+        <v>1750.546426570703</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2148,23 +2148,23 @@
       <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="4">
-        <v>24.09598084295509</v>
-      </c>
-      <c r="C45" s="4">
-        <v>46.02564548352823</v>
-      </c>
-      <c r="D45" s="4">
-        <v>26.621712504323561</v>
-      </c>
-      <c r="E45" s="4">
-        <v>45.398046518585318</v>
-      </c>
-      <c r="F45" s="4">
-        <v>80.309917654816019</v>
+      <c r="B45" s="3">
+        <v>40.895758220048663</v>
+      </c>
+      <c r="C45" s="3">
+        <v>15.45769599960607</v>
+      </c>
+      <c r="D45" s="3">
+        <v>7.0962892989591566</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17.92441196243384</v>
+      </c>
+      <c r="F45" s="3">
+        <v>32.746420814570712</v>
       </c>
       <c r="G45">
-        <v>222.4513030042082</v>
+        <v>114.12057629561841</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2173,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>23</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
       </c>
       <c r="L45" t="s">
         <v>13</v>
@@ -2187,22 +2187,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="3">
-        <v>819.93246627345229</v>
+        <v>41.466961436971737</v>
       </c>
       <c r="C46" s="3">
-        <v>177.95107658333549</v>
+        <v>39.143452149345229</v>
       </c>
       <c r="D46" s="3">
-        <v>39.939352904811606</v>
+        <v>16.883304475451389</v>
       </c>
       <c r="E46" s="3">
-        <v>41.291352407113372</v>
+        <v>22.706780397732011</v>
       </c>
       <c r="F46" s="3">
-        <v>91.505400439019127</v>
+        <v>46.167724639851983</v>
       </c>
       <c r="G46">
-        <v>1170.619648607732</v>
+        <v>166.36822309935229</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -2225,22 +2225,22 @@
         <v>9</v>
       </c>
       <c r="B47" s="3">
-        <v>755.21700314466875</v>
+        <v>819.93246627345229</v>
       </c>
       <c r="C47" s="3">
-        <v>268.68587531945712</v>
+        <v>177.95107658333549</v>
       </c>
       <c r="D47" s="3">
-        <v>162.55994015662239</v>
+        <v>39.939352904811606</v>
       </c>
       <c r="E47" s="3">
-        <v>247.64125968033579</v>
+        <v>41.291352407113372</v>
       </c>
       <c r="F47" s="3">
-        <v>203.65952801618141</v>
+        <v>91.505400439019127</v>
       </c>
       <c r="G47">
-        <v>1637.7636063172661</v>
+        <v>1170.619648607732</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
@@ -2262,23 +2262,23 @@
       <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="4">
-        <v>4656.8370087382773</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1594.232871633104</v>
-      </c>
-      <c r="D48" s="4">
-        <v>490.75170901551252</v>
-      </c>
-      <c r="E48" s="4">
-        <v>428.82891076199701</v>
-      </c>
-      <c r="F48" s="4">
-        <v>281.56260069794808</v>
+      <c r="B48" s="3">
+        <v>755.21700314466875</v>
+      </c>
+      <c r="C48" s="3">
+        <v>268.68587531945712</v>
+      </c>
+      <c r="D48" s="3">
+        <v>162.55994015662239</v>
+      </c>
+      <c r="E48" s="3">
+        <v>247.64125968033579</v>
+      </c>
+      <c r="F48" s="3">
+        <v>203.65952801618141</v>
       </c>
       <c r="G48">
-        <v>7452.2131008468386</v>
+        <v>1637.7636063172661</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>24</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
         <v>13</v>
@@ -2373,8 +2373,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K54">
-    <sortCondition ref="F2:F54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
